--- a/POO/Labo02/Graphique.xlsx
+++ b/POO/Labo02/Graphique.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,14 +27,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+  <si>
+    <t>Grille</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>10'000 Expérimentations</t>
+  </si>
+  <si>
+    <t>1'000 Expérimentations</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,14 +81,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -92,6 +150,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Distance parcourue par le robot en fonction de la taille de la grille</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -131,6 +214,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1'000</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -145,7 +231,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Feuil1!$A$1:$A$46</c:f>
+              <c:f>Feuil1!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -292,147 +378,147 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$B$1:$B$46</c:f>
+              <c:f>Feuil1!$B$3:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
                 <c:pt idx="0">
-                  <c:v>156.518832868109</c:v>
+                  <c:v>168.76683762138899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218.160069479008</c:v>
+                  <c:v>224.44069292218501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>324.05346233669599</c:v>
+                  <c:v>316.07145952678002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>371.74292673373498</c:v>
+                  <c:v>380.68734151649602</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511.25018926466203</c:v>
+                  <c:v>518.89005953260801</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>617.66829402595795</c:v>
+                  <c:v>645.63645735383705</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>794.43943842343106</c:v>
+                  <c:v>818.52004468425105</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>921.71994338478498</c:v>
+                  <c:v>935.83817180170695</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1261.6637076571801</c:v>
+                  <c:v>1270.5683316079801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1352.8589591842101</c:v>
+                  <c:v>1339.2487318440999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1721.30782949442</c:v>
+                  <c:v>1764.2464462770199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1978.51154555222</c:v>
+                  <c:v>1931.6619906027099</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2470.9704159961602</c:v>
+                  <c:v>2491.01266706659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2720.0029926666698</c:v>
+                  <c:v>2643.3460103205598</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3432.4354253726201</c:v>
+                  <c:v>3452.1256892055699</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3554.6844842321798</c:v>
+                  <c:v>3704.52194487624</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4452.2683449505803</c:v>
+                  <c:v>4601.8185685122098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4948.0672612707704</c:v>
+                  <c:v>4999.0460153486401</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6177.1506206084996</c:v>
+                  <c:v>6387.8623693849704</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6577.7899832556895</c:v>
+                  <c:v>6635.4624643890502</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8312.9203021285102</c:v>
+                  <c:v>8587.8349937126895</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8846.5696776719305</c:v>
+                  <c:v>8812.76403142661</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10612.2499693226</c:v>
+                  <c:v>11738.372797132901</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>12150.1518375295</c:v>
+                  <c:v>11993.5328503323</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>13976.012196309801</c:v>
+                  <c:v>14573.3248622263</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14651.897314825201</c:v>
+                  <c:v>15749.763103752901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19820.408660427202</c:v>
+                  <c:v>20135.522354436602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>19901.249675082199</c:v>
+                  <c:v>20145.663336894999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25124.284777807101</c:v>
+                  <c:v>27022.491927516399</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>26170.537367719899</c:v>
+                  <c:v>27195.197551067798</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34288.716975309297</c:v>
+                  <c:v>35637.070171910302</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>34901.371001354601</c:v>
+                  <c:v>36062.926447025799</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>44321.984716841398</c:v>
+                  <c:v>46614.106284250898</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>47456.946937584602</c:v>
+                  <c:v>45334.913837638604</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>60439.794557289497</c:v>
+                  <c:v>59202.8114980307</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>60569.472497447903</c:v>
+                  <c:v>61179.577455176397</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81582.224779088006</c:v>
+                  <c:v>81033.458023970001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81070.336938082095</c:v>
+                  <c:v>83238.6654711054</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100303.05859922001</c:v>
+                  <c:v>102846.67311676301</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>108218.487232436</c:v>
+                  <c:v>110334.481312955</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>132794.305747379</c:v>
+                  <c:v>148029.69603045101</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>146427.695210873</c:v>
+                  <c:v>146430.75907023501</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>181723.13017284701</c:v>
+                  <c:v>185793.52378902299</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>185089.43383901499</c:v>
+                  <c:v>195337.38186716201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>247100.599129999</c:v>
+                  <c:v>260744.14376811599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>248729.775056596</c:v>
+                  <c:v>256793.18458774401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +526,326 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4B7F-400A-AB68-83A6BB65F10C}"/>
+              <c16:uniqueId val="{00000000-F0A5-46AC-8462-029E9F4616AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10'000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>164.53395420437701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.43120466374299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325.91125292611798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.55367952135202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525.26196685220395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>629.15326334685699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810.13115303648999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>935.25361134892603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1249.69701882083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1338.8460171552099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1768.97560470699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1969.9348809897001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2445.9398893471798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2719.5377805215799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3378.10374538425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3603.4448275452701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4664.26703384352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5039.0481573746401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6260.7752791038301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6660.4806000471799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8625.71279523462</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8790.2962656651198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11257.873247346501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11876.6137422104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14811.236547140699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15665.9966082136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19767.035599199498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20231.921884891901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26331.807225012599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26997.8596780689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34573.525714687799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35780.3589750377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45594.285718837396</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46684.411924909502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61351.328655349498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62341.315239252603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79802.045496984894</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82254.7155673659</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106984.108765072</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108466.79867531999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139290.78459781001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>145946.38373246699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186557.16000333801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>187574.64509914099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246441.4672206</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>252749.83852136001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0A5-46AC-8462-029E9F4616AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -452,11 +857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="356540216"/>
-        <c:axId val="356541200"/>
+        <c:axId val="380777112"/>
+        <c:axId val="380777440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="356540216"/>
+        <c:axId val="380777112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,6 +881,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Taille</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de la grille</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -513,12 +979,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356541200"/>
+        <c:crossAx val="380777440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="356541200"/>
+        <c:axId val="380777440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,6 +1004,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> parcourue</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -575,7 +1102,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="356540216"/>
+        <c:crossAx val="380777112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -587,6 +1114,1101 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Distance parcourue par le robot en fonction de la taille de la grille</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>Echelle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> logarithmique</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1'000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>168.76683762138899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.44069292218501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>316.07145952678002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>380.68734151649602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>518.89005953260801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>645.63645735383705</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>818.52004468425105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>935.83817180170695</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1270.5683316079801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1339.2487318440999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1764.2464462770199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1931.6619906027099</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2491.01266706659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2643.3460103205598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3452.1256892055699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3704.52194487624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4601.8185685122098</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4999.0460153486401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6387.8623693849704</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6635.4624643890502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8587.8349937126895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8812.76403142661</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11738.372797132901</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11993.5328503323</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14573.3248622263</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15749.763103752901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20135.522354436602</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20145.663336894999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27022.491927516399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27195.197551067798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35637.070171910302</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36062.926447025799</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46614.106284250898</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45334.913837638604</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>59202.8114980307</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>61179.577455176397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>81033.458023970001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>83238.6654711054</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>102846.67311676301</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>110334.481312955</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>148029.69603045101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>146430.75907023501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185793.52378902299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195337.38186716201</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>260744.14376811599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>256793.18458774401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA15-44C7-8FFF-B42DC0520363}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>10'000</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>164.53395420437701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>220.43120466374299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>325.91125292611798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>376.55367952135202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>525.26196685220395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>629.15326334685699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>810.13115303648999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>935.25361134892603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1249.69701882083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1338.8460171552099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1768.97560470699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1969.9348809897001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2445.9398893471798</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2719.5377805215799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3378.10374538425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3603.4448275452701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4664.26703384352</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5039.0481573746401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6260.7752791038301</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6660.4806000471799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8625.71279523462</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8790.2962656651198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11257.873247346501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11876.6137422104</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14811.236547140699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15665.9966082136</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19767.035599199498</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20231.921884891901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26331.807225012599</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>26997.8596780689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34573.525714687799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35780.3589750377</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45594.285718837396</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46684.411924909502</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61351.328655349498</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>62341.315239252603</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79802.045496984894</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82254.7155673659</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>106984.108765072</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>108466.79867531999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>139290.78459781001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>145946.38373246699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>186557.16000333801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>187574.64509914099</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>246441.4672206</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>252749.83852136001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA15-44C7-8FFF-B42DC0520363}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="380777112"/>
+        <c:axId val="380777440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="380777112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Taille</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> de la grille</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380777440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="380777440"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CH" baseline="0"/>
+                  <a:t> parcourue</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CH"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="380777112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -664,6 +2286,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1180,24 +2842,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1207,6 +3385,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1478,387 +3688,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="B1">
-        <v>156.518832868109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B3" s="3">
+        <v>168.76683762138899</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>164.53395420437701</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>218.160069479008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B4" s="3">
+        <v>224.44069292218501</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3">
+        <v>220.43120466374299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>324.05346233669599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B5" s="3">
+        <v>316.07145952678002</v>
+      </c>
+      <c r="C5" s="3">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>325.91125292611798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>371.74292673373498</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B6" s="3">
+        <v>380.68734151649602</v>
+      </c>
+      <c r="C6" s="3">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>376.55367952135202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>18</v>
       </c>
-      <c r="B5">
-        <v>511.25018926466203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B7" s="3">
+        <v>518.89005953260801</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>525.26196685220395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>617.66829402595795</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8" s="3">
+        <v>645.63645735383705</v>
+      </c>
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>629.15326334685699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>22</v>
       </c>
-      <c r="B7">
-        <v>794.43943842343106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B9" s="3">
+        <v>818.52004468425105</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>810.13115303648999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>24</v>
       </c>
-      <c r="B8">
-        <v>921.71994338478498</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B10" s="3">
+        <v>935.83817180170695</v>
+      </c>
+      <c r="C10" s="3">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>935.25361134892603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>1261.6637076571801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B11" s="3">
+        <v>1270.5683316079801</v>
+      </c>
+      <c r="C11" s="3">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1249.69701882083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>1352.8589591842101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B12" s="3">
+        <v>1339.2487318440999</v>
+      </c>
+      <c r="C12" s="3">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1338.8460171552099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>30</v>
       </c>
-      <c r="B11">
-        <v>1721.30782949442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B13" s="3">
+        <v>1764.2464462770199</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1768.97560470699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>32</v>
       </c>
-      <c r="B12">
-        <v>1978.51154555222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B14" s="3">
+        <v>1931.6619906027099</v>
+      </c>
+      <c r="C14" s="3">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1969.9348809897001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>2470.9704159961602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B15" s="3">
+        <v>2491.01266706659</v>
+      </c>
+      <c r="C15" s="3">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2445.9398893471798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>2720.0029926666698</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="B16" s="3">
+        <v>2643.3460103205598</v>
+      </c>
+      <c r="C16" s="3">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2719.5377805215799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>38</v>
       </c>
-      <c r="B15">
-        <v>3432.4354253726201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B17" s="3">
+        <v>3452.1256892055699</v>
+      </c>
+      <c r="C17" s="3">
+        <v>38</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3378.10374538425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>40</v>
       </c>
-      <c r="B16">
-        <v>3554.6844842321798</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B18" s="3">
+        <v>3704.52194487624</v>
+      </c>
+      <c r="C18" s="3">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3603.4448275452701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>42</v>
       </c>
-      <c r="B17">
-        <v>4452.2683449505803</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B19" s="3">
+        <v>4601.8185685122098</v>
+      </c>
+      <c r="C19" s="3">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4664.26703384352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>44</v>
       </c>
-      <c r="B18">
-        <v>4948.0672612707704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="B20" s="3">
+        <v>4999.0460153486401</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5039.0481573746401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>46</v>
       </c>
-      <c r="B19">
-        <v>6177.1506206084996</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="B21" s="3">
+        <v>6387.8623693849704</v>
+      </c>
+      <c r="C21" s="3">
+        <v>46</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6260.7752791038301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>48</v>
       </c>
-      <c r="B20">
-        <v>6577.7899832556895</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="B22" s="3">
+        <v>6635.4624643890502</v>
+      </c>
+      <c r="C22" s="3">
+        <v>48</v>
+      </c>
+      <c r="D22" s="3">
+        <v>6660.4806000471799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>50</v>
       </c>
-      <c r="B21">
-        <v>8312.9203021285102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="B23" s="3">
+        <v>8587.8349937126895</v>
+      </c>
+      <c r="C23" s="3">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8625.71279523462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>52</v>
       </c>
-      <c r="B22">
-        <v>8846.5696776719305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="B24" s="3">
+        <v>8812.76403142661</v>
+      </c>
+      <c r="C24" s="3">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3">
+        <v>8790.2962656651198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>54</v>
       </c>
-      <c r="B23">
-        <v>10612.2499693226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="B25" s="3">
+        <v>11738.372797132901</v>
+      </c>
+      <c r="C25" s="3">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3">
+        <v>11257.873247346501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>56</v>
       </c>
-      <c r="B24">
-        <v>12150.1518375295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="B26" s="3">
+        <v>11993.5328503323</v>
+      </c>
+      <c r="C26" s="3">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3">
+        <v>11876.6137422104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>58</v>
       </c>
-      <c r="B25">
-        <v>13976.012196309801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="B27" s="3">
+        <v>14573.3248622263</v>
+      </c>
+      <c r="C27" s="3">
+        <v>58</v>
+      </c>
+      <c r="D27" s="3">
+        <v>14811.236547140699</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>60</v>
       </c>
-      <c r="B26">
-        <v>14651.897314825201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="B28" s="3">
+        <v>15749.763103752901</v>
+      </c>
+      <c r="C28" s="3">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3">
+        <v>15665.9966082136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>62</v>
       </c>
-      <c r="B27">
-        <v>19820.408660427202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="B29" s="3">
+        <v>20135.522354436602</v>
+      </c>
+      <c r="C29" s="3">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3">
+        <v>19767.035599199498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>64</v>
       </c>
-      <c r="B28">
-        <v>19901.249675082199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="B30" s="3">
+        <v>20145.663336894999</v>
+      </c>
+      <c r="C30" s="3">
+        <v>64</v>
+      </c>
+      <c r="D30" s="3">
+        <v>20231.921884891901</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>66</v>
       </c>
-      <c r="B29">
-        <v>25124.284777807101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="B31" s="3">
+        <v>27022.491927516399</v>
+      </c>
+      <c r="C31" s="3">
+        <v>66</v>
+      </c>
+      <c r="D31" s="3">
+        <v>26331.807225012599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>68</v>
       </c>
-      <c r="B30">
-        <v>26170.537367719899</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="B32" s="3">
+        <v>27195.197551067798</v>
+      </c>
+      <c r="C32" s="3">
+        <v>68</v>
+      </c>
+      <c r="D32" s="3">
+        <v>26997.8596780689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>70</v>
       </c>
-      <c r="B31">
-        <v>34288.716975309297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="B33" s="3">
+        <v>35637.070171910302</v>
+      </c>
+      <c r="C33" s="3">
+        <v>70</v>
+      </c>
+      <c r="D33" s="3">
+        <v>34573.525714687799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>72</v>
       </c>
-      <c r="B32">
-        <v>34901.371001354601</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="B34" s="3">
+        <v>36062.926447025799</v>
+      </c>
+      <c r="C34" s="3">
+        <v>72</v>
+      </c>
+      <c r="D34" s="3">
+        <v>35780.3589750377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>74</v>
       </c>
-      <c r="B33">
-        <v>44321.984716841398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="B35" s="3">
+        <v>46614.106284250898</v>
+      </c>
+      <c r="C35" s="3">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45594.285718837396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>76</v>
       </c>
-      <c r="B34">
-        <v>47456.946937584602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="B36" s="3">
+        <v>45334.913837638604</v>
+      </c>
+      <c r="C36" s="3">
+        <v>76</v>
+      </c>
+      <c r="D36" s="3">
+        <v>46684.411924909502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>78</v>
       </c>
-      <c r="B35">
-        <v>60439.794557289497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="B37" s="3">
+        <v>59202.8114980307</v>
+      </c>
+      <c r="C37" s="3">
+        <v>78</v>
+      </c>
+      <c r="D37" s="3">
+        <v>61351.328655349498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>80</v>
       </c>
-      <c r="B36">
-        <v>60569.472497447903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="B38" s="3">
+        <v>61179.577455176397</v>
+      </c>
+      <c r="C38" s="3">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3">
+        <v>62341.315239252603</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>82</v>
       </c>
-      <c r="B37">
-        <v>81582.224779088006</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="B39" s="3">
+        <v>81033.458023970001</v>
+      </c>
+      <c r="C39" s="3">
+        <v>82</v>
+      </c>
+      <c r="D39" s="3">
+        <v>79802.045496984894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>84</v>
       </c>
-      <c r="B38">
-        <v>81070.336938082095</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="B40" s="3">
+        <v>83238.6654711054</v>
+      </c>
+      <c r="C40" s="3">
+        <v>84</v>
+      </c>
+      <c r="D40" s="3">
+        <v>82254.7155673659</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>86</v>
       </c>
-      <c r="B39">
-        <v>100303.05859922001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="B41" s="3">
+        <v>102846.67311676301</v>
+      </c>
+      <c r="C41" s="3">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3">
+        <v>106984.108765072</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>88</v>
       </c>
-      <c r="B40">
-        <v>108218.487232436</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="B42" s="3">
+        <v>110334.481312955</v>
+      </c>
+      <c r="C42" s="3">
+        <v>88</v>
+      </c>
+      <c r="D42" s="3">
+        <v>108466.79867531999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>90</v>
       </c>
-      <c r="B41">
-        <v>132794.305747379</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="B43" s="3">
+        <v>148029.69603045101</v>
+      </c>
+      <c r="C43" s="3">
+        <v>90</v>
+      </c>
+      <c r="D43" s="3">
+        <v>139290.78459781001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>92</v>
       </c>
-      <c r="B42">
-        <v>146427.695210873</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="B44" s="3">
+        <v>146430.75907023501</v>
+      </c>
+      <c r="C44" s="3">
+        <v>92</v>
+      </c>
+      <c r="D44" s="3">
+        <v>145946.38373246699</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>94</v>
       </c>
-      <c r="B43">
-        <v>181723.13017284701</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="B45" s="3">
+        <v>185793.52378902299</v>
+      </c>
+      <c r="C45" s="3">
+        <v>94</v>
+      </c>
+      <c r="D45" s="3">
+        <v>186557.16000333801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>96</v>
       </c>
-      <c r="B44">
-        <v>185089.43383901499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="B46" s="3">
+        <v>195337.38186716201</v>
+      </c>
+      <c r="C46" s="3">
+        <v>96</v>
+      </c>
+      <c r="D46" s="3">
+        <v>187574.64509914099</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>98</v>
       </c>
-      <c r="B45">
-        <v>247100.599129999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="B47" s="3">
+        <v>260744.14376811599</v>
+      </c>
+      <c r="C47" s="3">
+        <v>98</v>
+      </c>
+      <c r="D47" s="3">
+        <v>246441.4672206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>100</v>
       </c>
-      <c r="B46">
-        <v>248729.775056596</v>
+      <c r="B48" s="3">
+        <v>256793.18458774401</v>
+      </c>
+      <c r="C48" s="3">
+        <v>100</v>
+      </c>
+      <c r="D48" s="3">
+        <v>252749.83852136001</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/POO/Labo02/Graphique.xlsx
+++ b/POO/Labo02/Graphique.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Grille</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>1'000 Expérimentations</t>
+  </si>
+  <si>
+    <t>1.075^grille*200-250</t>
   </si>
 </sst>
 </file>
@@ -846,6 +849,325 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F0A5-46AC-8462-029E9F4616AB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fonction test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$3:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>162.20631243294224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.35591980531888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.48880982502158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386.15863085404055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485.16081778070054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>599.57022004782198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>731.78458554276438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>884.57481166785692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1061.1430167336669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1265.189648712844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500.9910377937804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1773.4890180504372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2088.3944964845364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2452.3071399999426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2872.8536886624329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3358.8477939605241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3920.4747318956297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4569.5048620468879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5319.5403062029345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6186.3000163557654</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7187.9492064011301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8345.4800516473078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9683.1516346849185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11228.998357832757</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13015.417477270477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15079.848072170696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17465.555678402263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20222.539030853615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23408.577917530205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27090.44410594584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31345.300719933664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36262.319394473336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41944.54910023824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48511.075803962827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56099.518225954533</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64868.911999868702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75003.042679848266</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86714.297446899654</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100248.11623707341</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>115888.13557646795</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133962.13292555575</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>154848.89611209536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>178986.1618195402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>206879.78950270612</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>239114.36299406472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276365.44198501611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0A5-46AC-8462-029E9F4616AB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,7 +1500,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1227,13 +1549,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CH"/>
-              <a:t>Echelle</a:t>
+              <a:t>Echelle logarithmique</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> logarithmique</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-CH"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1588,7 +1905,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA15-44C7-8FFF-B42DC0520363}"/>
+              <c16:uniqueId val="{00000000-F30F-4A80-BC20-CDA8C417A31C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1907,7 +2224,326 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA15-44C7-8FFF-B42DC0520363}"/>
+              <c16:uniqueId val="{00000001-F30F-4A80-BC20-CDA8C417A31C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fonction test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$3:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>162.20631243294224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.35591980531888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300.48880982502158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>386.15863085404055</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>485.16081778070054</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>599.57022004782198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>731.78458554276438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>884.57481166785692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1061.1430167336669</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1265.189648712844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1500.9910377937804</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1773.4890180504372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2088.3944964845364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2452.3071399999426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2872.8536886624329</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3358.8477939605241</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3920.4747318956297</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4569.5048620468879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5319.5403062029345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6186.3000163557654</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7187.9492064011301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8345.4800516473078</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9683.1516346849185</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11228.998357832757</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13015.417477270477</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15079.848072170696</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17465.555678402263</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20222.539030853615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23408.577917530205</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27090.44410594584</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31345.300719933664</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36262.319394473336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>41944.54910023824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48511.075803962827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56099.518225954533</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>64868.911999868702</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>75003.042679848266</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>86714.297446899654</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>100248.11623707341</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>115888.13557646795</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133962.13292555575</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>154848.89611209536</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>178986.1618195402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>206879.78950270612</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>239114.36299406472</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>276365.44198501611</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F30F-4A80-BC20-CDA8C417A31C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2241,7 +2877,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3362,16 +3998,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3392,20 +4028,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvPr id="5" name="Graphique 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3688,10 +4324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3700,9 +4336,10 @@
     <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3712,7 +4349,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3725,8 +4362,11 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -3739,8 +4379,12 @@
       <c r="D3" s="3">
         <v>164.53395420437701</v>
       </c>
+      <c r="E3" s="3">
+        <f>POWER(1.075,A3)*200-250</f>
+        <v>162.20631243294224</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>12</v>
       </c>
@@ -3753,8 +4397,12 @@
       <c r="D4" s="3">
         <v>220.43120466374299</v>
       </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E48" si="0">POWER(1.075,A4)*200-250</f>
+        <v>226.35591980531888</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>14</v>
       </c>
@@ -3767,8 +4415,12 @@
       <c r="D5" s="3">
         <v>325.91125292611798</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>300.48880982502158</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>16</v>
       </c>
@@ -3781,8 +4433,12 @@
       <c r="D6" s="3">
         <v>376.55367952135202</v>
       </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>386.15863085404055</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>18</v>
       </c>
@@ -3795,8 +4451,12 @@
       <c r="D7" s="3">
         <v>525.26196685220395</v>
       </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>485.16081778070054</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>20</v>
       </c>
@@ -3809,8 +4469,12 @@
       <c r="D8" s="3">
         <v>629.15326334685699</v>
       </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>599.57022004782198</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>22</v>
       </c>
@@ -3823,8 +4487,12 @@
       <c r="D9" s="3">
         <v>810.13115303648999</v>
       </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>731.78458554276438</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>24</v>
       </c>
@@ -3837,8 +4505,12 @@
       <c r="D10" s="3">
         <v>935.25361134892603</v>
       </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>884.57481166785692</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>26</v>
       </c>
@@ -3851,8 +4523,12 @@
       <c r="D11" s="3">
         <v>1249.69701882083</v>
       </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>1061.1430167336669</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>28</v>
       </c>
@@ -3865,8 +4541,12 @@
       <c r="D12" s="3">
         <v>1338.8460171552099</v>
       </c>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>1265.189648712844</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>30</v>
       </c>
@@ -3879,8 +4559,12 @@
       <c r="D13" s="3">
         <v>1768.97560470699</v>
       </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1500.9910377937804</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>32</v>
       </c>
@@ -3893,8 +4577,12 @@
       <c r="D14" s="3">
         <v>1969.9348809897001</v>
       </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1773.4890180504372</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>34</v>
       </c>
@@ -3907,8 +4595,12 @@
       <c r="D15" s="3">
         <v>2445.9398893471798</v>
       </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>2088.3944964845364</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>36</v>
       </c>
@@ -3921,8 +4613,12 @@
       <c r="D16" s="3">
         <v>2719.5377805215799</v>
       </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>2452.3071399999426</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>38</v>
       </c>
@@ -3935,8 +4631,12 @@
       <c r="D17" s="3">
         <v>3378.10374538425</v>
       </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>2872.8536886624329</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>40</v>
       </c>
@@ -3949,8 +4649,12 @@
       <c r="D18" s="3">
         <v>3603.4448275452701</v>
       </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>3358.8477939605241</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42</v>
       </c>
@@ -3963,8 +4667,12 @@
       <c r="D19" s="3">
         <v>4664.26703384352</v>
       </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>3920.4747318956297</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44</v>
       </c>
@@ -3977,8 +4685,12 @@
       <c r="D20" s="3">
         <v>5039.0481573746401</v>
       </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>4569.5048620468879</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>46</v>
       </c>
@@ -3991,8 +4703,12 @@
       <c r="D21" s="3">
         <v>6260.7752791038301</v>
       </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>5319.5403062029345</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>48</v>
       </c>
@@ -4005,8 +4721,12 @@
       <c r="D22" s="3">
         <v>6660.4806000471799</v>
       </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>6186.3000163557654</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>50</v>
       </c>
@@ -4019,8 +4739,12 @@
       <c r="D23" s="3">
         <v>8625.71279523462</v>
       </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>7187.9492064011301</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>52</v>
       </c>
@@ -4033,8 +4757,12 @@
       <c r="D24" s="3">
         <v>8790.2962656651198</v>
       </c>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>8345.4800516473078</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>54</v>
       </c>
@@ -4047,8 +4775,12 @@
       <c r="D25" s="3">
         <v>11257.873247346501</v>
       </c>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>9683.1516346849185</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>56</v>
       </c>
@@ -4061,8 +4793,12 @@
       <c r="D26" s="3">
         <v>11876.6137422104</v>
       </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>11228.998357832757</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>58</v>
       </c>
@@ -4075,8 +4811,12 @@
       <c r="D27" s="3">
         <v>14811.236547140699</v>
       </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>13015.417477270477</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>60</v>
       </c>
@@ -4089,8 +4829,12 @@
       <c r="D28" s="3">
         <v>15665.9966082136</v>
       </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>15079.848072170696</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>62</v>
       </c>
@@ -4103,8 +4847,12 @@
       <c r="D29" s="3">
         <v>19767.035599199498</v>
       </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>17465.555678402263</v>
+      </c>
     </row>
-    <row r="30" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>64</v>
       </c>
@@ -4117,8 +4865,12 @@
       <c r="D30" s="3">
         <v>20231.921884891901</v>
       </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>20222.539030853615</v>
+      </c>
     </row>
-    <row r="31" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>66</v>
       </c>
@@ -4131,8 +4883,12 @@
       <c r="D31" s="3">
         <v>26331.807225012599</v>
       </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>23408.577917530205</v>
+      </c>
     </row>
-    <row r="32" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>68</v>
       </c>
@@ -4145,8 +4901,12 @@
       <c r="D32" s="3">
         <v>26997.8596780689</v>
       </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>27090.44410594584</v>
+      </c>
     </row>
-    <row r="33" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>70</v>
       </c>
@@ -4159,8 +4919,12 @@
       <c r="D33" s="3">
         <v>34573.525714687799</v>
       </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>31345.300719933664</v>
+      </c>
     </row>
-    <row r="34" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>72</v>
       </c>
@@ -4173,8 +4937,12 @@
       <c r="D34" s="3">
         <v>35780.3589750377</v>
       </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>36262.319394473336</v>
+      </c>
     </row>
-    <row r="35" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>74</v>
       </c>
@@ -4187,8 +4955,12 @@
       <c r="D35" s="3">
         <v>45594.285718837396</v>
       </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>41944.54910023824</v>
+      </c>
     </row>
-    <row r="36" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>76</v>
       </c>
@@ -4201,8 +4973,12 @@
       <c r="D36" s="3">
         <v>46684.411924909502</v>
       </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>48511.075803962827</v>
+      </c>
     </row>
-    <row r="37" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>78</v>
       </c>
@@ -4215,8 +4991,12 @@
       <c r="D37" s="3">
         <v>61351.328655349498</v>
       </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>56099.518225954533</v>
+      </c>
     </row>
-    <row r="38" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>80</v>
       </c>
@@ -4229,8 +5009,12 @@
       <c r="D38" s="3">
         <v>62341.315239252603</v>
       </c>
+      <c r="E38" s="3">
+        <f t="shared" si="0"/>
+        <v>64868.911999868702</v>
+      </c>
     </row>
-    <row r="39" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>82</v>
       </c>
@@ -4243,8 +5027,12 @@
       <c r="D39" s="3">
         <v>79802.045496984894</v>
       </c>
+      <c r="E39" s="3">
+        <f t="shared" si="0"/>
+        <v>75003.042679848266</v>
+      </c>
     </row>
-    <row r="40" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>84</v>
       </c>
@@ -4257,8 +5045,12 @@
       <c r="D40" s="3">
         <v>82254.7155673659</v>
       </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>86714.297446899654</v>
+      </c>
     </row>
-    <row r="41" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>86</v>
       </c>
@@ -4271,8 +5063,12 @@
       <c r="D41" s="3">
         <v>106984.108765072</v>
       </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>100248.11623707341</v>
+      </c>
     </row>
-    <row r="42" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>88</v>
       </c>
@@ -4285,8 +5081,12 @@
       <c r="D42" s="3">
         <v>108466.79867531999</v>
       </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>115888.13557646795</v>
+      </c>
     </row>
-    <row r="43" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>90</v>
       </c>
@@ -4299,8 +5099,12 @@
       <c r="D43" s="3">
         <v>139290.78459781001</v>
       </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>133962.13292555575</v>
+      </c>
     </row>
-    <row r="44" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>92</v>
       </c>
@@ -4313,8 +5117,12 @@
       <c r="D44" s="3">
         <v>145946.38373246699</v>
       </c>
+      <c r="E44" s="3">
+        <f t="shared" si="0"/>
+        <v>154848.89611209536</v>
+      </c>
     </row>
-    <row r="45" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>94</v>
       </c>
@@ -4327,8 +5135,12 @@
       <c r="D45" s="3">
         <v>186557.16000333801</v>
       </c>
+      <c r="E45" s="3">
+        <f t="shared" si="0"/>
+        <v>178986.1618195402</v>
+      </c>
     </row>
-    <row r="46" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>96</v>
       </c>
@@ -4341,8 +5153,12 @@
       <c r="D46" s="3">
         <v>187574.64509914099</v>
       </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>206879.78950270612</v>
+      </c>
     </row>
-    <row r="47" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>98</v>
       </c>
@@ -4355,8 +5171,12 @@
       <c r="D47" s="3">
         <v>246441.4672206</v>
       </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>239114.36299406472</v>
+      </c>
     </row>
-    <row r="48" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>100</v>
       </c>
@@ -4368,6 +5188,10 @@
       </c>
       <c r="D48" s="3">
         <v>252749.83852136001</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>276365.44198501611</v>
       </c>
     </row>
   </sheetData>
